--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE Results/SMOTE_cc04.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE Results/SMOTE_cc04.xlsx
@@ -247,9 +247,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="A1:AN1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9:AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1700,11 +1700,11 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
     </row>
     <row r="10" spans="1:40">
       <c r="A10">
@@ -1825,13 +1825,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1961,8 +1961,8 @@
         <f>COUNTIFS(AJ:AJ, AL11)</f>
         <v>91</v>
       </c>
-      <c r="AN11" s="8">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+      <c r="AN11" s="7">
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>1</v>
       </c>
     </row>
@@ -2089,11 +2089,11 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="10">COUNTIFS(AJ:AJ, AL12)</f>
-        <v>0</v>
-      </c>
-      <c r="AN12" s="8">
-        <f t="shared" ref="AN12:AN37" si="11">AM12/(SUM(AM$11:AM$37))</f>
+        <f t="shared" ref="AM12:AM38" si="10">COUNTIFS(AJ:AJ, AL12)</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN38" si="11">AM12/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2354,7 +2354,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2485,7 +2485,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2616,7 +2616,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2747,7 +2747,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2878,7 +2878,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3009,7 +3009,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3140,7 +3140,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3271,7 +3271,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3402,7 +3402,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3533,7 +3533,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3664,7 +3664,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3795,7 +3795,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3926,7 +3926,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4057,7 +4057,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4188,7 +4188,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4319,7 +4319,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4450,7 +4450,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4581,7 +4581,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4712,7 +4712,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4836,14 +4836,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="9">
+      <c r="AL33" s="8">
         <v>22</v>
       </c>
-      <c r="AM33" s="9">
+      <c r="AM33" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="8">
+      <c r="AN33" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4967,14 +4967,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="9">
+      <c r="AL34" s="8">
         <v>23</v>
       </c>
-      <c r="AM34" s="9">
+      <c r="AM34" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="8">
+      <c r="AN34" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5098,14 +5098,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="9">
+      <c r="AL35" s="8">
         <v>24</v>
       </c>
-      <c r="AM35" s="9">
+      <c r="AM35" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="8">
+      <c r="AN35" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5229,14 +5229,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="9">
+      <c r="AL36" s="8">
         <v>25</v>
       </c>
-      <c r="AM36" s="9">
+      <c r="AM36" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="8">
+      <c r="AN36" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5360,14 +5360,14 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="9">
+      <c r="AL37" s="8">
         <v>26</v>
       </c>
-      <c r="AM37" s="9">
+      <c r="AM37" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="8">
+      <c r="AN37" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5489,6 +5489,17 @@
       </c>
       <c r="AJ38" s="4">
         <f t="shared" ref="AJ38:AJ92" si="24">IF(AH38 = 1, VLOOKUP(AI38, $AL$2:$AM$6, 2, FALSE), "Verificar Manualmente")</f>
+        <v>0</v>
+      </c>
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
